--- a/Output/March/productivity_TL/productivity_TL_2022-03-18.xlsx
+++ b/Output/March/productivity_TL/productivity_TL_2022-03-18.xlsx
@@ -1607,13 +1607,13 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T17">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U17">
-        <v>0.08695652173913043</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1666,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T18">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U18">
-        <v>0.08695652173913043</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1961,13 +1961,13 @@
         <v>0</v>
       </c>
       <c r="S23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T23">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U23">
-        <v>0.078125</v>
+        <v>0.09230769230769231</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -2498,13 +2498,13 @@
         <v>7.366666666666667</v>
       </c>
       <c r="F2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H2">
-        <v>0.07738095238095238</v>
+        <v>0.08284023668639054</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2576,13 +2576,13 @@
         <v>8.25</v>
       </c>
       <c r="F5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H5">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2706,13 +2706,13 @@
         <v>8.216666666666667</v>
       </c>
       <c r="F10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H10">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2935,7 +2935,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.07738095238095238</v>
+        <v>0.08284023668639054</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2977,7 +2977,7 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3047,7 +3047,7 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3189,7 +3189,7 @@
         <v>63</v>
       </c>
       <c r="D2">
-        <v>0.07738095238095238</v>
+        <v>0.08284023668639054</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -3240,7 +3240,7 @@
         <v>63</v>
       </c>
       <c r="D5">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -3325,7 +3325,7 @@
         <v>63</v>
       </c>
       <c r="D10">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="E10">
         <v>1</v>
